--- a/Docs/DegreePlannerDataSampleNew.xlsx
+++ b/Docs/DegreePlannerDataSampleNew.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj\Documents\44663\DegreePlanner\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3626C02A-4E57-4364-BCBF-D39F8E4A6049}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D082E3-1C08-48B1-B0BC-3429A5E9F2B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
     <sheet name="Requirement" sheetId="2" r:id="rId2"/>
     <sheet name="DegreeRequirement" sheetId="3" r:id="rId3"/>
-    <sheet name="DegreeplanTermRequirement" sheetId="4" r:id="rId4"/>
-    <sheet name="DegreePlan" sheetId="5" r:id="rId5"/>
-    <sheet name="StudentTerm" sheetId="6" r:id="rId6"/>
+    <sheet name="StudentTerm" sheetId="6" r:id="rId4"/>
+    <sheet name="DegreeplanTermRequirement" sheetId="4" r:id="rId5"/>
+    <sheet name="DegreePlan" sheetId="5" r:id="rId6"/>
     <sheet name="Student" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1715,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2872,7 +2872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4379,2469 +4381,390 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J999"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>542</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>12</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>12</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>12</v>
-      </c>
-      <c r="C32" s="5">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5">
-        <v>12</v>
-      </c>
-      <c r="C33" s="5">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>12</v>
-      </c>
-      <c r="C34" s="5">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5">
-        <v>12</v>
-      </c>
-      <c r="C35" s="5">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
-        <v>12</v>
-      </c>
-      <c r="C36" s="5">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>13</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5">
-        <v>13</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5">
-        <v>13</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5">
-        <v>13</v>
-      </c>
-      <c r="C41" s="5">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5">
-        <v>13</v>
-      </c>
-      <c r="C42" s="5">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5">
-        <v>13</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5">
-        <v>13</v>
-      </c>
-      <c r="C44" s="5">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5">
-        <v>13</v>
-      </c>
-      <c r="C45" s="5">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>13</v>
-      </c>
-      <c r="C46" s="5">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5">
-        <v>13</v>
-      </c>
-      <c r="C47" s="5">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5">
-        <v>13</v>
-      </c>
-      <c r="C48" s="5">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5">
-        <v>13</v>
-      </c>
-      <c r="C49" s="5">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5">
-        <v>14</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5">
-        <v>14</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5">
-        <v>14</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5">
-        <v>14</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>14</v>
-      </c>
-      <c r="C54" s="5">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>14</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5">
-        <v>14</v>
-      </c>
-      <c r="C56" s="5">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5">
-        <v>14</v>
-      </c>
-      <c r="C57" s="5">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5">
-        <v>14</v>
-      </c>
-      <c r="C58" s="5">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5">
-        <v>14</v>
-      </c>
-      <c r="C59" s="5">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
-        <v>14</v>
-      </c>
-      <c r="C60" s="5">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5">
-        <v>14</v>
-      </c>
-      <c r="C61" s="5">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5">
-        <v>15</v>
-      </c>
-      <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-      <c r="B63" s="5">
-        <v>15</v>
-      </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5">
-        <v>15</v>
-      </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A65" s="5">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5">
-        <v>15</v>
-      </c>
-      <c r="C65" s="5">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A66" s="5">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5">
-        <v>15</v>
-      </c>
-      <c r="C66" s="5">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5">
-        <v>15</v>
-      </c>
-      <c r="C67" s="5">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A68" s="5">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5">
-        <v>15</v>
-      </c>
-      <c r="C68" s="5">
-        <v>4</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A69" s="5">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5">
-        <v>15</v>
-      </c>
-      <c r="C69" s="5">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A70" s="5">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5">
-        <v>15</v>
-      </c>
-      <c r="C70" s="5">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A71" s="5">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5">
-        <v>15</v>
-      </c>
-      <c r="C71" s="5">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A72" s="5">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5">
-        <v>15</v>
-      </c>
-      <c r="C72" s="5">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A73" s="5">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5">
-        <v>15</v>
-      </c>
-      <c r="C73" s="5">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A74" s="5">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5">
-        <v>16</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A75" s="5">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5">
-        <v>16</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5">
-        <v>16</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A77" s="5">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5">
-        <v>16</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A78" s="5">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5">
-        <v>16</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A79" s="5">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5">
-        <v>16</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A80" s="5">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5">
-        <v>16</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A81" s="5">
-        <v>80</v>
-      </c>
-      <c r="B81" s="5">
-        <v>16</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A82" s="5">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5">
-        <v>16</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A83" s="5">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5">
-        <v>16</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A84" s="5">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5">
-        <v>16</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="D84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A85" s="5">
-        <v>84</v>
-      </c>
-      <c r="B85" s="5">
-        <v>16</v>
-      </c>
-      <c r="C85">
-        <v>5</v>
-      </c>
-      <c r="D85">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A86" s="5">
-        <v>85</v>
-      </c>
-      <c r="B86" s="5">
-        <v>17</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A87" s="5">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5">
-        <v>17</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A88" s="5">
-        <v>87</v>
-      </c>
-      <c r="B88" s="5">
-        <v>17</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A89" s="5">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5">
-        <v>17</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A90" s="5">
-        <v>89</v>
-      </c>
-      <c r="B90" s="5">
-        <v>17</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A91" s="5">
-        <v>90</v>
-      </c>
-      <c r="B91" s="5">
-        <v>17</v>
-      </c>
-      <c r="C91">
-        <v>3</v>
-      </c>
-      <c r="D91">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A92" s="5">
-        <v>91</v>
-      </c>
-      <c r="B92" s="5">
-        <v>17</v>
-      </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A93" s="5">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5">
-        <v>17</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A94" s="5">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5">
-        <v>17</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A95" s="5">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5">
-        <v>17</v>
-      </c>
-      <c r="C95">
-        <v>5</v>
-      </c>
-      <c r="D95">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A96" s="5">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5">
-        <v>17</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-      <c r="D96">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A97" s="5">
-        <v>96</v>
-      </c>
-      <c r="B97" s="5">
-        <v>17</v>
-      </c>
-      <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A11" zoomScale="157" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>531519</v>
       </c>
       <c r="C2">
-        <v>531519</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>531519</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="B4">
         <v>531519</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5">
-        <v>12</v>
-      </c>
-      <c r="B4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <v>531499</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>43</v>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
-        <v>13</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>531499</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>531519</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
-        <v>14</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>531370</v>
+        <v>531519</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>531370</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>531499</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
-        <v>531439</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>531499</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>531499</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>531499</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>531499</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>531370</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>531370</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>531370</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>531370</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>531370</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>531439</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B18" s="6">
+        <v>531439</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>531439</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C9" s="5">
-        <v>531440</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>531439</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>531439</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -7816,389 +5739,2472 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E1000"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>542</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>12</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>13</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>13</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>13</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>13</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>13</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>13</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
+        <v>13</v>
+      </c>
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
+        <v>13</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>13</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>13</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
+        <v>13</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
+        <v>13</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>14</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
+        <v>14</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
+        <v>14</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>14</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
+        <v>14</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>14</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
+        <v>14</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5">
+        <v>14</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5">
+        <v>14</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>14</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5">
+        <v>14</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>14</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
+        <v>15</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5">
+        <v>15</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5">
+        <v>15</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5">
+        <v>15</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5">
+        <v>15</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5">
+        <v>15</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5">
+        <v>15</v>
+      </c>
+      <c r="C68" s="5">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
+        <v>15</v>
+      </c>
+      <c r="C69" s="5">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5">
+        <v>15</v>
+      </c>
+      <c r="C70" s="5">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
+        <v>15</v>
+      </c>
+      <c r="C71" s="5">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5">
+        <v>15</v>
+      </c>
+      <c r="C72" s="5">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
+        <v>15</v>
+      </c>
+      <c r="C73" s="5">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5">
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E1000"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>531519</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>531519</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="5">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>531519</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="5">
+        <v>531499</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>531519</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
+      <c r="C5" s="5">
+        <v>531499</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="5">
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>531519</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>531370</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>531499</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>531370</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>531499</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>531439</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>531499</v>
-      </c>
-      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>63</v>
+      <c r="C9" s="5">
+        <v>531439</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>531499</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>531499</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>531370</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>531370</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>531370</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>531370</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>531370</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>531439</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>531439</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>531439</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>531439</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>531439</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/Docs/DegreePlannerDataSampleNew.xlsx
+++ b/Docs/DegreePlannerDataSampleNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj\Documents\44663\DegreePlanner\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D082E3-1C08-48B1-B0BC-3429A5E9F2B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084408F1-9616-43F5-B604-02B0C1CE3263}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <sheet name="DegreePlan" sheetId="5" r:id="rId6"/>
     <sheet name="Student" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>DegreeRequirementId</t>
   </si>
@@ -41,12 +49,6 @@
   </si>
   <si>
     <t>Requirement(unique,max 6)</t>
-  </si>
-  <si>
-    <t>Degree(unique,max 6 characters)</t>
-  </si>
-  <si>
-    <t>DegreeName(unique, max 20 characters)</t>
   </si>
   <si>
     <t>RequirementName(unique, max 20)</t>
@@ -293,6 +295,27 @@
   </si>
   <si>
     <t>Vamshi raj</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>new Degree{</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>DegreeName</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
@@ -667,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -677,7 +700,9 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="70.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -685,14 +710,20 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -719,10 +750,20 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="str">
+        <f>D2&amp;A1&amp;"="&amp;A2&amp;", "&amp;B1&amp;"= '"&amp;B2&amp;"', "&amp;C1&amp;"= '"&amp;C2&amp;"'"&amp;E2</f>
+        <v>new Degree{DegreeId=3, Degree= 'ACS+NF', DegreeName= 'MS ACS+NF'}</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1735,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1744,10 +1785,10 @@
         <v>460</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1755,10 +1796,10 @@
         <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1766,10 +1807,10 @@
         <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1777,10 +1818,10 @@
         <v>563</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1788,10 +1829,10 @@
         <v>560</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1799,10 +1840,10 @@
         <v>555</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1810,10 +1851,10 @@
         <v>618</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1821,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1832,10 +1873,10 @@
         <v>664</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1843,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1854,10 +1895,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1865,10 +1906,10 @@
         <v>691</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1876,10 +1917,10 @@
         <v>692</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4399,19 +4440,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4425,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4442,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4459,10 +4500,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4476,10 +4517,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4493,10 +4534,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4510,10 +4551,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4527,10 +4568,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4544,10 +4585,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4561,10 +4602,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4578,10 +4619,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4595,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4612,10 +4653,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4629,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4646,10 +4687,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4663,10 +4704,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4680,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4697,10 +4738,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4714,10 +4755,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4731,10 +4772,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
@@ -4748,10 +4789,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1"/>
@@ -5743,7 +5784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -5758,13 +5799,13 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8042,19 +8083,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8068,10 +8109,10 @@
         <v>531519</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8085,10 +8126,10 @@
         <v>531519</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8102,10 +8143,10 @@
         <v>531499</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8119,10 +8160,10 @@
         <v>531499</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8136,10 +8177,10 @@
         <v>531370</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8153,10 +8194,10 @@
         <v>531370</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8170,10 +8211,10 @@
         <v>531439</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8187,10 +8228,10 @@
         <v>531439</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9199,16 +9240,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>919</v>
@@ -9219,13 +9260,13 @@
         <v>531519</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>919562791</v>
@@ -9236,13 +9277,13 @@
         <v>531499</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5">
         <v>919558726</v>
@@ -9253,13 +9294,13 @@
         <v>531370</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5">
         <v>919563101</v>
@@ -9270,13 +9311,13 @@
         <v>531439</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>919563365</v>

--- a/Docs/DegreePlannerDataSampleNew.xlsx
+++ b/Docs/DegreePlannerDataSampleNew.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531439\Desktop\DegreePlanner\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charan\Desktop\DOTNET_PROJECT\DegreePlanner\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5630027-6461-4F58-B903-92F19011345D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="DegreePlan" sheetId="5" r:id="rId6"/>
     <sheet name="Student" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,9 +44,6 @@
   </si>
   <si>
     <t>RequirementID</t>
-  </si>
-  <si>
-    <t>Requirement(unique,max 6)</t>
   </si>
   <si>
     <t>RequirementName(unique, max 20)</t>
@@ -188,9 +184,6 @@
     <t>TermAbbrev</t>
   </si>
   <si>
-    <t>Term Label</t>
-  </si>
-  <si>
     <t>S19</t>
   </si>
   <si>
@@ -316,11 +309,17 @@
   <si>
     <t>DegreePlanAbbrev(u,8)</t>
   </si>
+  <si>
+    <t>TermLabel</t>
+  </si>
+  <si>
+    <t>RequirementAbbrev(unique,max 6)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,7 +685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -709,19 +708,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -749,16 +748,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
       </c>
       <c r="F2" t="str">
         <f>D2&amp;A1&amp;"="&amp;A2&amp;", "&amp;B1&amp;"= '"&amp;B2&amp;"', "&amp;C1&amp;"= '"&amp;C2&amp;"'"&amp;E2</f>
@@ -1752,11 +1751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1772,10 +1771,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1784,10 +1783,10 @@
         <v>460</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,10 +1794,10 @@
         <v>356</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,10 +1805,10 @@
         <v>542</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1816,10 @@
         <v>563</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,10 +1827,10 @@
         <v>560</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,10 +1838,10 @@
         <v>555</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,10 +1849,10 @@
         <v>618</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,10 +1871,10 @@
         <v>664</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,10 +1882,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,10 +1893,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,10 +1904,10 @@
         <v>691</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,10 +1915,10 @@
         <v>692</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2909,7 +2908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4421,11 +4420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A8" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4439,19 +4438,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4465,10 +4464,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4482,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4499,10 +4498,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4516,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4533,10 +4532,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4550,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4567,10 +4566,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4584,10 +4583,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4601,10 +4600,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4618,10 +4617,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4635,10 +4634,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4652,10 +4651,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4669,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4686,10 +4685,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4703,10 +4702,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4720,10 +4719,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4737,10 +4736,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4754,10 +4753,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4771,10 +4770,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4788,10 +4787,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5780,7 +5779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5798,13 +5797,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8064,10 +8063,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8082,19 +8081,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8108,10 +8107,10 @@
         <v>531519</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8125,10 +8124,10 @@
         <v>531519</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8142,10 +8141,10 @@
         <v>531499</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8159,10 +8158,10 @@
         <v>531499</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8176,10 +8175,10 @@
         <v>531370</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8193,10 +8192,10 @@
         <v>531370</v>
       </c>
       <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8210,10 +8209,10 @@
         <v>531439</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8227,10 +8226,10 @@
         <v>531439</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9220,7 +9219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9239,16 +9238,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>919</v>
@@ -9259,13 +9258,13 @@
         <v>531519</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>919562791</v>
@@ -9276,13 +9275,13 @@
         <v>531499</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5">
         <v>919558726</v>
@@ -9293,13 +9292,13 @@
         <v>531370</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5">
         <v>919563101</v>
@@ -9310,13 +9309,13 @@
         <v>531439</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5">
         <v>919563365</v>
